--- a/CODE/Data/CSV/advect_tests/mass_conserv_advect.xlsx
+++ b/CODE/Data/CSV/advect_tests/mass_conserv_advect.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Case</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>New 200m avg vel, dt = 1 hr, j = 2, swim to deep</t>
+  </si>
+  <si>
+    <t>New 200m avg vel, dt = 1 hr, j = 2, swim to shallow, mult by lmask 1st</t>
+  </si>
+  <si>
+    <t>New 200m avg vel, dt = 1 hr, j = 2, swim to deep, mult by lmask 1st</t>
   </si>
 </sst>
 </file>
@@ -172,11 +178,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,260 +488,365 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>-7.8666</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>-5.3753000000000002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>-20.837299999999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>-0.31740000000000002</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <v>-5.1647999999999996</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
         <v>-6.4858000000000002</v>
       </c>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>-15.323700000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>-12.789099999999999</v>
       </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>-4.3329000000000004</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>1.6291</v>
       </c>
-      <c r="G6">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
         <v>-4.7885</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="8">
         <v>0.49940000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
         <v>-8.6800999999999995E-7</v>
       </c>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>23.395</v>
       </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>23.395</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>23.412199999999999</v>
       </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>-4.3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>1.6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>-11.5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <v>-0.8</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="8">
         <v>-2.5</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="8">
         <v>-4.2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="8">
         <v>-0.5</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="8">
         <v>-1.3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>-4.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I13">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8">
         <v>-1.2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>-4.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>-3.5659999999999998</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>-0.5968</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>-10.3956</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>-2.4392</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="8">
         <v>4.7607999999999997</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="8">
         <v>-4.1600999999999999</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="8">
         <v>-2.0428999999999999</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="8">
         <v>-0.38080000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>-4.9553000000000003</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="9">
         <v>6.1597E+18</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>-13.9963</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="9">
         <v>3.4736999999999997E+45</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>-2.9847000000000001</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="10">
         <v>-4.5688000000000004</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="8">
         <v>-1.6102000000000001</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="9">
         <v>2.8743999999999999E+44</v>
       </c>
     </row>
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>-2.4392</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7">
+        <v>3.4736999999999997E+45</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="1">
@@ -718,7 +854,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="1">
@@ -726,7 +862,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="1">
@@ -734,7 +870,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="1">
@@ -742,7 +878,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="1">
@@ -750,7 +886,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="1">
@@ -758,7 +894,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="1">

--- a/CODE/Data/CSV/advect_tests/mass_conserv_advect.xlsx
+++ b/CODE/Data/CSV/advect_tests/mass_conserv_advect.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21540" yWindow="480" windowWidth="16240" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="21540" yWindow="460" windowWidth="16240" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Case</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>New 200m avg vel, dt = 1 hr, j = 2, swim to deep, mult by lmask 1st</t>
+  </si>
+  <si>
+    <t>New 200m avg vel, dt = 1 hr, j = 2, swim to const rand, mult by lmask 1st</t>
+  </si>
+  <si>
+    <t>New 200m avg vel, dt = 1 hr, j = 2, swim to changing rand, mult by lmask 1st</t>
   </si>
 </sst>
 </file>
@@ -139,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -205,7 +211,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,7 +494,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,6 +846,44 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
+    <row r="19" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7">
+        <v>2.6601999999999998E+37</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7">
+        <v>3.1471000000000002E+46</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7">
+        <v>1.5424999999999999E+42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6">
+        <v>4.7473000000000001</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>161.745</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6">
+        <v>177.05170000000001</v>
+      </c>
+    </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
